--- a/volatility/src/xls/01_USDJPY.xlsx
+++ b/volatility/src/xls/01_USDJPY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="220" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -561,19 +561,19 @@
         <v>77760</v>
       </c>
       <c r="E6" s="5">
-        <v>105.3</v>
+        <v>107.9</v>
       </c>
       <c r="G6" s="5">
         <f>E6+B9</f>
-        <v>105.7</v>
+        <v>108.30000000000001</v>
       </c>
       <c r="H6" s="5">
         <f>G6+B8</f>
-        <v>107</v>
+        <v>109.60000000000001</v>
       </c>
       <c r="I6" s="5">
         <f>G6-B8</f>
-        <v>104.4</v>
+        <v>107.00000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>E6-B9</f>
-        <v>104.89999999999999</v>
+        <v>107.5</v>
       </c>
       <c r="H10" s="5">
         <f>G10-B8</f>
-        <v>103.6</v>
+        <v>106.2</v>
       </c>
       <c r="I10" s="5">
         <f>G10+B8</f>
-        <v>106.19999999999999</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -620,12 +620,12 @@
       <c r="G11" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5455,7 +5455,6 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
